--- a/data/trans_orig/DESPLA_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_TIEMPO-Estudios-trans_orig.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,03</t>
+          <t>35,85</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>34,83</t>
+          <t>12,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>53,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,13</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,84</t>
+          <t>43,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>37,06</t>
+          <t>8,78</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,36; 18,61</t>
+          <t>27,54; 64,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,55; 46,28</t>
+          <t>8,48; 18,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 11,52</t>
+          <t>38,32; 81,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,33; 67,13</t>
+          <t>3,59; 10,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,52; 12,37</t>
+          <t>33,75; 60,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,97; 50,09</t>
+          <t>6,46; 12,32</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,14</t>
+          <t>37,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,18</t>
+          <t>33,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,48</t>
+          <t>32,09</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,34</t>
+          <t>32,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,81</t>
+          <t>35,67</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,47</t>
+          <t>32,88</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,13; 36,29</t>
+          <t>35,34; 40,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,36; 38,23</t>
+          <t>30,22; 36,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,93; 36,11</t>
+          <t>30,39; 34,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,5; 34,22</t>
+          <t>29,1; 36,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,47; 35,13</t>
+          <t>33,64; 37,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,1; 35,79</t>
+          <t>30,69; 35,52</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>31,69</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>41,44</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>35,09</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>34,01</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>43,86</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>35,45</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>32,88</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>42,8</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>35,28</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,05; 45,65</t>
+          <t>28,01; 35,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,9; 38,93</t>
+          <t>37,84; 45,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,16; 47,53</t>
+          <t>30,75; 38,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,54; 38,86</t>
+          <t>40,51; 47,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,3; 45,37</t>
+          <t>30,36; 35,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,04; 37,66</t>
+          <t>40,37; 45,28</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>36,42</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>32,88</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33,69</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32,72</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>35,26</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>32,79</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>35,81</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>32,66</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>33,75</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>32,72</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>34,86</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,72; 35,42</t>
+          <t>34,18; 38,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,04; 37,41</t>
+          <t>30,65; 35,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,54; 35,09</t>
+          <t>31,77; 36,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,1; 35,95</t>
+          <t>30,53; 35,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,18; 34,42</t>
+          <t>33,71; 37,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,65; 36,17</t>
+          <t>31,14; 34,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/DESPLA_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_TIEMPO-Estudios-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo medio para desplazarse al trabajo en minutos</t>
+          <t>Tiempo medio para desplazarse al trabajo en minutos (tasa de respuesta: 91,11%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/DESPLA_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_TIEMPO-Estudios-trans_orig.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,54; 64,81</t>
+          <t>27,05; 58,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,48; 18,34</t>
+          <t>8,09; 19,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,32; 81,48</t>
+          <t>38,21; 81,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 10,15</t>
+          <t>3,72; 10,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,75; 60,9</t>
+          <t>33,71; 62,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,46; 12,32</t>
+          <t>6,3; 12,68</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,34; 40,11</t>
+          <t>35,58; 40,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,22; 36,45</t>
+          <t>30,42; 36,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,39; 34,3</t>
+          <t>30,32; 34,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,1; 36,25</t>
+          <t>29,24; 36,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,64; 37,87</t>
+          <t>33,82; 37,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,69; 35,52</t>
+          <t>30,64; 35,29</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,01; 35,55</t>
+          <t>28,61; 36,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,84; 45,57</t>
+          <t>37,91; 45,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,75; 38,99</t>
+          <t>30,75; 38,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40,51; 47,69</t>
+          <t>40,46; 47,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,36; 35,86</t>
+          <t>30,15; 35,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>40,37; 45,28</t>
+          <t>40,39; 45,8</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,18; 38,7</t>
+          <t>34,21; 38,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,65; 35,06</t>
+          <t>30,66; 35,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,77; 36,3</t>
+          <t>32,01; 36,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,53; 35,02</t>
+          <t>30,37; 35,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,71; 37,25</t>
+          <t>33,67; 37,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,14; 34,72</t>
+          <t>31,14; 34,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/DESPLA_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_TIEMPO-Estudios-trans_orig.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35,85</t>
+          <t>36,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>53,02</t>
+          <t>41,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>43,16</t>
+          <t>38,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,05; 58,7</t>
+          <t>29,16; 57,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,21; 81,13</t>
+          <t>34,78; 49,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,71; 62,12</t>
+          <t>33,22; 50,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,94</t>
+          <t>38,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,09</t>
+          <t>32,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,67</t>
+          <t>35,82</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,58; 40,15</t>
+          <t>35,66; 40,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,32; 34,12</t>
+          <t>30,86; 35,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,82; 37,98</t>
+          <t>34,32; 37,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,69</t>
+          <t>31,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,01</t>
+          <t>33,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,88</t>
+          <t>32,71</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,61; 36,31</t>
+          <t>28,37; 36,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,75; 38,77</t>
+          <t>30,79; 38,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,15; 35,48</t>
+          <t>30,09; 35,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,42</t>
+          <t>36,11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,69</t>
+          <t>33,7</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,26</t>
+          <t>34,99</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,21; 38,63</t>
+          <t>34,2; 38,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,01; 36,55</t>
+          <t>32,01; 35,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,67; 37,21</t>
+          <t>33,61; 36,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
